--- a/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:59:12+00:00</t>
+    <t>2023-02-08T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:47:00+00:00</t>
+    <t>2023-02-09T09:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:48:14+00:00</t>
+    <t>2023-02-09T12:01:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:01:57+00:00</t>
+    <t>2023-02-09T12:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16255" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17994" uniqueCount="1481">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:29:47+00:00</t>
+    <t>2023-02-13T07:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4583,6 +4583,24 @@
   </si>
   <si>
     <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-artregimen-lines</t>
+  </si>
+  <si>
+    <t>date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>DateHIVTestDone</t>
+  </si>
+  <si>
+    <t>Date HIV Test Done</t>
+  </si>
+  <si>
+    <t>This profile is to record the Date when HIV test was done for a patient</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-test-done</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>
@@ -4731,7 +4749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B213"/>
+  <dimension ref="A2:B234"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6350,7 +6368,7 @@
         <v>31</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="211">
@@ -6358,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>1013</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="212">
@@ -6374,6 +6392,168 @@
         <v>37</v>
       </c>
       <c r="B213" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B234" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -6384,7 +6564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK480"/>
+  <dimension ref="A1:AK531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -49200,14 +49380,14 @@
         <v>1470</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
-        <v>1014</v>
+        <v>1248</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" t="s" s="2">
@@ -49229,12 +49409,14 @@
         <v>79</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>1015</v>
+        <v>1249</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>1016</v>
-      </c>
-      <c r="O408" s="2"/>
+        <v>1250</v>
+      </c>
+      <c r="O408" t="s" s="2">
+        <v>1251</v>
+      </c>
       <c r="P408" s="2"/>
       <c r="Q408" t="s" s="2">
         <v>78</v>
@@ -49283,7 +49465,7 @@
         <v>78</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>1012</v>
+        <v>1246</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>76</v>
@@ -49303,10 +49485,10 @@
         <v>1470</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1017</v>
+        <v>1252</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1017</v>
+        <v>1252</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -49408,10 +49590,10 @@
         <v>1470</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1018</v>
+        <v>1253</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1018</v>
+        <v>1253</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -49511,10 +49693,10 @@
         <v>1470</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1019</v>
+        <v>1254</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1019</v>
+        <v>1254</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49616,10 +49798,10 @@
         <v>1470</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1020</v>
+        <v>1255</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1020</v>
+        <v>1255</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -49721,10 +49903,10 @@
         <v>1470</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1021</v>
+        <v>1256</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1021</v>
+        <v>1256</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -49826,10 +50008,10 @@
         <v>1470</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -49931,10 +50113,10 @@
         <v>1470</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1023</v>
+        <v>1258</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1023</v>
+        <v>1258</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -50036,10 +50218,10 @@
         <v>1470</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1027</v>
+        <v>1259</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1027</v>
+        <v>1259</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -50143,10 +50325,10 @@
         <v>1470</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -50172,13 +50354,15 @@
         <v>139</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1029</v>
+        <v>1261</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1030</v>
+        <v>1262</v>
       </c>
       <c r="O417" s="2"/>
-      <c r="P417" s="2"/>
+      <c r="P417" t="s" s="2">
+        <v>1263</v>
+      </c>
       <c r="Q417" t="s" s="2">
         <v>78</v>
       </c>
@@ -50226,7 +50410,7 @@
         <v>78</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1028</v>
+        <v>1260</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>76</v>
@@ -50246,44 +50430,44 @@
         <v>1470</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
-        <v>78</v>
+        <v>1265</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H418" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I418" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K418" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>103</v>
+        <v>1266</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>1032</v>
+        <v>1267</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O418" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="P418" s="2"/>
+        <v>1268</v>
+      </c>
+      <c r="O418" s="2"/>
+      <c r="P418" t="s" s="2">
+        <v>1269</v>
+      </c>
       <c r="Q418" t="s" s="2">
         <v>78</v>
       </c>
@@ -50307,13 +50491,13 @@
         <v>78</v>
       </c>
       <c r="Y418" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Z418" t="s" s="2">
-        <v>1035</v>
+        <v>78</v>
       </c>
       <c r="AA418" t="s" s="2">
-        <v>1036</v>
+        <v>78</v>
       </c>
       <c r="AB418" t="s" s="2">
         <v>78</v>
@@ -50331,13 +50515,13 @@
         <v>78</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>1031</v>
+        <v>1264</v>
       </c>
       <c r="AH418" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI418" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ418" t="s" s="2">
         <v>78</v>
@@ -50351,14 +50535,14 @@
         <v>1470</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
-        <v>78</v>
+        <v>1271</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" t="s" s="2">
@@ -50374,19 +50558,19 @@
         <v>78</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>254</v>
+        <v>1272</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1038</v>
+        <v>1273</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1039</v>
+        <v>1274</v>
       </c>
       <c r="O419" t="s" s="2">
-        <v>1040</v>
+        <v>1275</v>
       </c>
       <c r="P419" s="2"/>
       <c r="Q419" t="s" s="2">
@@ -50436,7 +50620,7 @@
         <v>78</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>1037</v>
+        <v>1270</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>76</v>
@@ -50456,10 +50640,10 @@
         <v>1470</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1041</v>
+        <v>1276</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1041</v>
+        <v>1276</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -50467,7 +50651,7 @@
       </c>
       <c r="F420" s="2"/>
       <c r="G420" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H420" t="s" s="2">
         <v>83</v>
@@ -50476,22 +50660,26 @@
         <v>78</v>
       </c>
       <c r="J420" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>260</v>
+        <v>1277</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O420" s="2"/>
-      <c r="P420" s="2"/>
+        <v>1278</v>
+      </c>
+      <c r="O420" t="s" s="2">
+        <v>1279</v>
+      </c>
+      <c r="P420" t="s" s="2">
+        <v>1280</v>
+      </c>
       <c r="Q420" t="s" s="2">
         <v>78</v>
       </c>
@@ -50500,7 +50688,7 @@
         <v>78</v>
       </c>
       <c r="T420" t="s" s="2">
-        <v>78</v>
+        <v>1281</v>
       </c>
       <c r="U420" t="s" s="2">
         <v>78</v>
@@ -50515,13 +50703,13 @@
         <v>78</v>
       </c>
       <c r="Y420" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z420" t="s" s="2">
-        <v>78</v>
+        <v>1282</v>
       </c>
       <c r="AA420" t="s" s="2">
-        <v>78</v>
+        <v>1283</v>
       </c>
       <c r="AB420" t="s" s="2">
         <v>78</v>
@@ -50539,10 +50727,10 @@
         <v>78</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>262</v>
+        <v>1276</v>
       </c>
       <c r="AH420" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI420" t="s" s="2">
         <v>83</v>
@@ -50551,7 +50739,7 @@
         <v>78</v>
       </c>
       <c r="AK420" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="421">
@@ -50559,14 +50747,14 @@
         <v>1470</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1042</v>
+        <v>1284</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1042</v>
+        <v>1284</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" t="s" s="2">
@@ -50585,18 +50773,20 @@
         <v>78</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>128</v>
+        <v>1285</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>264</v>
+        <v>1286</v>
       </c>
       <c r="O421" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P421" s="2"/>
+        <v>1287</v>
+      </c>
+      <c r="P421" t="s" s="2">
+        <v>1288</v>
+      </c>
       <c r="Q421" t="s" s="2">
         <v>78</v>
       </c>
@@ -50620,13 +50810,13 @@
         <v>78</v>
       </c>
       <c r="Y421" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z421" t="s" s="2">
-        <v>78</v>
+        <v>1289</v>
       </c>
       <c r="AA421" t="s" s="2">
-        <v>78</v>
+        <v>1290</v>
       </c>
       <c r="AB421" t="s" s="2">
         <v>78</v>
@@ -50644,7 +50834,7 @@
         <v>78</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>265</v>
+        <v>1284</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>76</v>
@@ -50656,7 +50846,7 @@
         <v>78</v>
       </c>
       <c r="AK421" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="422">
@@ -50664,45 +50854,45 @@
         <v>1470</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1043</v>
+        <v>1291</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1043</v>
+        <v>1291</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
-        <v>267</v>
+        <v>1292</v>
       </c>
       <c r="F422" s="2"/>
       <c r="G422" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H422" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I422" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K422" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>268</v>
+        <v>1293</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>269</v>
+        <v>1294</v>
       </c>
       <c r="O422" t="s" s="2">
-        <v>130</v>
+        <v>1295</v>
       </c>
       <c r="P422" t="s" s="2">
-        <v>136</v>
+        <v>1296</v>
       </c>
       <c r="Q422" t="s" s="2">
         <v>78</v>
@@ -50727,13 +50917,11 @@
         <v>78</v>
       </c>
       <c r="Y422" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z422" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Z422" s="2"/>
       <c r="AA422" t="s" s="2">
-        <v>78</v>
+        <v>1475</v>
       </c>
       <c r="AB422" t="s" s="2">
         <v>78</v>
@@ -50751,19 +50939,19 @@
         <v>78</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>270</v>
+        <v>1291</v>
       </c>
       <c r="AH422" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI422" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ422" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK422" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="423">
@@ -50771,10 +50959,10 @@
         <v>1470</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -50794,19 +50982,23 @@
         <v>78</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>103</v>
+        <v>1299</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1032</v>
+        <v>1300</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O423" s="2"/>
-      <c r="P423" s="2"/>
+        <v>1301</v>
+      </c>
+      <c r="O423" t="s" s="2">
+        <v>1302</v>
+      </c>
+      <c r="P423" t="s" s="2">
+        <v>1303</v>
+      </c>
       <c r="Q423" t="s" s="2">
         <v>78</v>
       </c>
@@ -50830,13 +51022,13 @@
         <v>78</v>
       </c>
       <c r="Y423" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Z423" t="s" s="2">
-        <v>1035</v>
+        <v>78</v>
       </c>
       <c r="AA423" t="s" s="2">
-        <v>1036</v>
+        <v>78</v>
       </c>
       <c r="AB423" t="s" s="2">
         <v>78</v>
@@ -50854,10 +51046,10 @@
         <v>78</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1044</v>
+        <v>1298</v>
       </c>
       <c r="AH423" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI423" t="s" s="2">
         <v>83</v>
@@ -50874,10 +51066,10 @@
         <v>1470</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -50885,10 +51077,10 @@
       </c>
       <c r="F424" s="2"/>
       <c r="G424" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H424" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I424" t="s" s="2">
         <v>78</v>
@@ -50897,18 +51089,20 @@
         <v>78</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1046</v>
+        <v>1305</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O424" s="2"/>
+        <v>1306</v>
+      </c>
+      <c r="O424" t="s" s="2">
+        <v>1307</v>
+      </c>
       <c r="P424" s="2"/>
       <c r="Q424" t="s" s="2">
         <v>78</v>
@@ -50957,13 +51151,13 @@
         <v>78</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="AH424" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI424" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ424" t="s" s="2">
         <v>78</v>
@@ -50977,14 +51171,14 @@
         <v>1470</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
-        <v>78</v>
+        <v>1309</v>
       </c>
       <c r="F425" s="2"/>
       <c r="G425" t="s" s="2">
@@ -51003,16 +51197,20 @@
         <v>84</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>1049</v>
+        <v>205</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1050</v>
+        <v>1310</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="O425" s="2"/>
-      <c r="P425" s="2"/>
+        <v>1311</v>
+      </c>
+      <c r="O425" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="P425" t="s" s="2">
+        <v>1313</v>
+      </c>
       <c r="Q425" t="s" s="2">
         <v>78</v>
       </c>
@@ -51036,13 +51234,13 @@
         <v>78</v>
       </c>
       <c r="Y425" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z425" t="s" s="2">
-        <v>1052</v>
+        <v>78</v>
       </c>
       <c r="AA425" t="s" s="2">
-        <v>1053</v>
+        <v>78</v>
       </c>
       <c r="AB425" t="s" s="2">
         <v>78</v>
@@ -51060,10 +51258,10 @@
         <v>78</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1048</v>
+        <v>1308</v>
       </c>
       <c r="AH425" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI425" t="s" s="2">
         <v>83</v>
@@ -51080,21 +51278,21 @@
         <v>1470</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
-        <v>78</v>
+        <v>1315</v>
       </c>
       <c r="F426" s="2"/>
       <c r="G426" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H426" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I426" t="s" s="2">
         <v>78</v>
@@ -51103,19 +51301,23 @@
         <v>78</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1055</v>
+        <v>1316</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1056</v>
-      </c>
-      <c r="O426" s="2"/>
-      <c r="P426" s="2"/>
+        <v>1317</v>
+      </c>
+      <c r="O426" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="P426" t="s" s="2">
+        <v>1319</v>
+      </c>
       <c r="Q426" t="s" s="2">
         <v>78</v>
       </c>
@@ -51151,25 +51353,23 @@
         <v>78</v>
       </c>
       <c r="AC426" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD426" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AD426" s="2"/>
       <c r="AE426" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF426" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>1054</v>
+        <v>1314</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ426" t="s" s="2">
         <v>78</v>
@@ -51183,18 +51383,20 @@
         <v>1470</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1057</v>
+        <v>1320</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="D427" s="2"/>
+        <v>1314</v>
+      </c>
+      <c r="D427" t="s" s="2">
+        <v>1321</v>
+      </c>
       <c r="E427" t="s" s="2">
-        <v>78</v>
+        <v>1315</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H427" t="s" s="2">
         <v>83</v>
@@ -51206,19 +51408,23 @@
         <v>78</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>260</v>
+        <v>1316</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O427" s="2"/>
-      <c r="P427" s="2"/>
+        <v>1317</v>
+      </c>
+      <c r="O427" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="P427" t="s" s="2">
+        <v>1319</v>
+      </c>
       <c r="Q427" t="s" s="2">
         <v>78</v>
       </c>
@@ -51266,7 +51472,7 @@
         <v>78</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>262</v>
+        <v>1314</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>76</v>
@@ -51278,7 +51484,7 @@
         <v>78</v>
       </c>
       <c r="AK427" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="428">
@@ -51286,21 +51492,21 @@
         <v>1470</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1058</v>
+        <v>1322</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1058</v>
+        <v>1322</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I428" t="s" s="2">
         <v>78</v>
@@ -51309,19 +51515,19 @@
         <v>78</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>127</v>
+        <v>1323</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>128</v>
+        <v>1324</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>264</v>
+        <v>1325</v>
       </c>
       <c r="O428" t="s" s="2">
-        <v>130</v>
+        <v>1326</v>
       </c>
       <c r="P428" s="2"/>
       <c r="Q428" t="s" s="2">
@@ -51371,19 +51577,19 @@
         <v>78</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>265</v>
+        <v>1322</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK428" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="429">
@@ -51391,14 +51597,14 @@
         <v>1470</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1059</v>
+        <v>1327</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1059</v>
+        <v>1327</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
@@ -51411,25 +51617,23 @@
         <v>78</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K429" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>127</v>
+        <v>1328</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>268</v>
+        <v>1329</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O429" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="O429" s="2"/>
       <c r="P429" t="s" s="2">
-        <v>136</v>
+        <v>1331</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>78</v>
@@ -51478,7 +51682,7 @@
         <v>78</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>270</v>
+        <v>1327</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>76</v>
@@ -51490,7 +51694,7 @@
         <v>78</v>
       </c>
       <c r="AK429" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="430">
@@ -51498,10 +51702,10 @@
         <v>1470</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -51509,7 +51713,7 @@
       </c>
       <c r="F430" s="2"/>
       <c r="G430" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H430" t="s" s="2">
         <v>83</v>
@@ -51521,19 +51725,23 @@
         <v>78</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>1049</v>
+        <v>1333</v>
       </c>
       <c r="M430" t="s" s="2">
-        <v>1061</v>
+        <v>1334</v>
       </c>
       <c r="N430" t="s" s="2">
-        <v>1062</v>
-      </c>
-      <c r="O430" s="2"/>
-      <c r="P430" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="O430" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="P430" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q430" t="s" s="2">
         <v>78</v>
       </c>
@@ -51557,13 +51765,13 @@
         <v>78</v>
       </c>
       <c r="Y430" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z430" t="s" s="2">
-        <v>1052</v>
+        <v>78</v>
       </c>
       <c r="AA430" t="s" s="2">
-        <v>1053</v>
+        <v>78</v>
       </c>
       <c r="AB430" t="s" s="2">
         <v>78</v>
@@ -51581,16 +51789,16 @@
         <v>78</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>1060</v>
+        <v>1332</v>
       </c>
       <c r="AH430" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI430" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ430" t="s" s="2">
-        <v>78</v>
+        <v>1338</v>
       </c>
       <c r="AK430" t="s" s="2">
         <v>95</v>
@@ -51601,10 +51809,10 @@
         <v>1470</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1063</v>
+        <v>1339</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1063</v>
+        <v>1339</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -51612,7 +51820,7 @@
       </c>
       <c r="F431" s="2"/>
       <c r="G431" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H431" t="s" s="2">
         <v>83</v>
@@ -51627,16 +51835,20 @@
         <v>78</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>1064</v>
+        <v>1340</v>
       </c>
       <c r="N431" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="O431" s="2"/>
-      <c r="P431" s="2"/>
+        <v>1341</v>
+      </c>
+      <c r="O431" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="P431" t="s" s="2">
+        <v>1343</v>
+      </c>
       <c r="Q431" t="s" s="2">
         <v>78</v>
       </c>
@@ -51660,13 +51872,13 @@
         <v>78</v>
       </c>
       <c r="Y431" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z431" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA431" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB431" t="s" s="2">
         <v>78</v>
@@ -51684,16 +51896,16 @@
         <v>78</v>
       </c>
       <c r="AG431" t="s" s="2">
-        <v>1063</v>
+        <v>1339</v>
       </c>
       <c r="AH431" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI431" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ431" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AK431" t="s" s="2">
         <v>95</v>
@@ -51704,14 +51916,14 @@
         <v>1470</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1066</v>
+        <v>1347</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1066</v>
+        <v>1347</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" t="s" s="2">
@@ -51727,21 +51939,23 @@
         <v>78</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L432" t="s" s="2">
         <v>183</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>1067</v>
+        <v>1349</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>1068</v>
+        <v>1350</v>
       </c>
       <c r="O432" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="P432" s="2"/>
+        <v>1351</v>
+      </c>
+      <c r="P432" t="s" s="2">
+        <v>1352</v>
+      </c>
       <c r="Q432" t="s" s="2">
         <v>78</v>
       </c>
@@ -51765,13 +51979,13 @@
         <v>78</v>
       </c>
       <c r="Y432" t="s" s="2">
-        <v>188</v>
+        <v>449</v>
       </c>
       <c r="Z432" t="s" s="2">
-        <v>1070</v>
+        <v>1353</v>
       </c>
       <c r="AA432" t="s" s="2">
-        <v>1071</v>
+        <v>1354</v>
       </c>
       <c r="AB432" t="s" s="2">
         <v>78</v>
@@ -51789,7 +52003,7 @@
         <v>78</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>1066</v>
+        <v>1347</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>76</v>
@@ -51809,10 +52023,10 @@
         <v>1470</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1072</v>
+        <v>1355</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1072</v>
+        <v>1355</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -51832,19 +52046,23 @@
         <v>78</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1073</v>
+        <v>1356</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1074</v>
-      </c>
-      <c r="O433" s="2"/>
-      <c r="P433" s="2"/>
+        <v>1357</v>
+      </c>
+      <c r="O433" t="s" s="2">
+        <v>1358</v>
+      </c>
+      <c r="P433" t="s" s="2">
+        <v>1359</v>
+      </c>
       <c r="Q433" t="s" s="2">
         <v>78</v>
       </c>
@@ -51868,13 +52086,13 @@
         <v>78</v>
       </c>
       <c r="Y433" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z433" t="s" s="2">
-        <v>1075</v>
+        <v>78</v>
       </c>
       <c r="AA433" t="s" s="2">
-        <v>1076</v>
+        <v>78</v>
       </c>
       <c r="AB433" t="s" s="2">
         <v>78</v>
@@ -51892,13 +52110,13 @@
         <v>78</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>1072</v>
+        <v>1355</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI433" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ433" t="s" s="2">
         <v>78</v>
@@ -51912,10 +52130,10 @@
         <v>1470</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1077</v>
+        <v>1360</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1077</v>
+        <v>1360</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -51941,12 +52159,14 @@
         <v>183</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1078</v>
+        <v>1361</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="O434" s="2"/>
+        <v>1362</v>
+      </c>
+      <c r="O434" t="s" s="2">
+        <v>1363</v>
+      </c>
       <c r="P434" s="2"/>
       <c r="Q434" t="s" s="2">
         <v>78</v>
@@ -51974,10 +52194,10 @@
         <v>188</v>
       </c>
       <c r="Z434" t="s" s="2">
-        <v>1079</v>
+        <v>515</v>
       </c>
       <c r="AA434" t="s" s="2">
-        <v>1080</v>
+        <v>516</v>
       </c>
       <c r="AB434" t="s" s="2">
         <v>78</v>
@@ -51995,7 +52215,7 @@
         <v>78</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>1077</v>
+        <v>1360</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>76</v>
@@ -52015,14 +52235,14 @@
         <v>1470</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1081</v>
+        <v>1364</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1081</v>
+        <v>1364</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" t="s" s="2">
@@ -52038,21 +52258,23 @@
         <v>78</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1082</v>
+        <v>1365</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1083</v>
+        <v>1366</v>
       </c>
       <c r="O435" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="P435" s="2"/>
+        <v>1367</v>
+      </c>
+      <c r="P435" t="s" s="2">
+        <v>1368</v>
+      </c>
       <c r="Q435" t="s" s="2">
         <v>78</v>
       </c>
@@ -52076,13 +52298,13 @@
         <v>78</v>
       </c>
       <c r="Y435" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z435" t="s" s="2">
-        <v>78</v>
+        <v>1369</v>
       </c>
       <c r="AA435" t="s" s="2">
-        <v>78</v>
+        <v>1370</v>
       </c>
       <c r="AB435" t="s" s="2">
         <v>78</v>
@@ -52100,7 +52322,7 @@
         <v>78</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>1081</v>
+        <v>1364</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>76</v>
@@ -52120,10 +52342,10 @@
         <v>1470</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1085</v>
+        <v>1371</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1085</v>
+        <v>1371</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -52134,7 +52356,7 @@
         <v>76</v>
       </c>
       <c r="H436" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I436" t="s" s="2">
         <v>78</v>
@@ -52143,18 +52365,20 @@
         <v>78</v>
       </c>
       <c r="K436" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>1086</v>
+        <v>1372</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>1087</v>
+        <v>1373</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="O436" s="2"/>
+        <v>1374</v>
+      </c>
+      <c r="O436" t="s" s="2">
+        <v>1375</v>
+      </c>
       <c r="P436" s="2"/>
       <c r="Q436" t="s" s="2">
         <v>78</v>
@@ -52203,13 +52427,13 @@
         <v>78</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>1085</v>
+        <v>1371</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI436" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ436" t="s" s="2">
         <v>78</v>
@@ -52223,21 +52447,21 @@
         <v>1470</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1089</v>
+        <v>1376</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1089</v>
+        <v>1376</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
-        <v>1090</v>
+        <v>78</v>
       </c>
       <c r="F437" s="2"/>
       <c r="G437" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H437" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I437" t="s" s="2">
         <v>78</v>
@@ -52249,15 +52473,17 @@
         <v>78</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>1091</v>
+        <v>1377</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1092</v>
+        <v>1378</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="O437" s="2"/>
+        <v>1379</v>
+      </c>
+      <c r="O437" t="s" s="2">
+        <v>1380</v>
+      </c>
       <c r="P437" s="2"/>
       <c r="Q437" t="s" s="2">
         <v>78</v>
@@ -52306,13 +52532,13 @@
         <v>78</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>1089</v>
+        <v>1376</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI437" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ437" t="s" s="2">
         <v>78</v>
@@ -52326,10 +52552,10 @@
         <v>1470</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1094</v>
+        <v>1381</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1094</v>
+        <v>1381</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -52349,19 +52575,23 @@
         <v>78</v>
       </c>
       <c r="K438" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L438" t="s" s="2">
         <v>254</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>1095</v>
+        <v>1382</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="O438" s="2"/>
-      <c r="P438" s="2"/>
+        <v>1383</v>
+      </c>
+      <c r="O438" t="s" s="2">
+        <v>1384</v>
+      </c>
+      <c r="P438" t="s" s="2">
+        <v>1385</v>
+      </c>
       <c r="Q438" t="s" s="2">
         <v>78</v>
       </c>
@@ -52409,7 +52639,7 @@
         <v>78</v>
       </c>
       <c r="AG438" t="s" s="2">
-        <v>1094</v>
+        <v>1381</v>
       </c>
       <c r="AH438" t="s" s="2">
         <v>76</v>
@@ -52421,7 +52651,7 @@
         <v>78</v>
       </c>
       <c r="AK438" t="s" s="2">
-        <v>95</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="439">
@@ -52429,10 +52659,10 @@
         <v>1470</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1097</v>
+        <v>1387</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1097</v>
+        <v>1387</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
@@ -52532,10 +52762,10 @@
         <v>1470</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1098</v>
+        <v>1388</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1098</v>
+        <v>1388</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -52637,10 +52867,10 @@
         <v>1470</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1099</v>
+        <v>1389</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1099</v>
+        <v>1389</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -52744,10 +52974,10 @@
         <v>1470</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1100</v>
+        <v>1390</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1100</v>
+        <v>1390</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -52758,7 +52988,7 @@
         <v>76</v>
       </c>
       <c r="H442" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I442" t="s" s="2">
         <v>78</v>
@@ -52767,20 +52997,18 @@
         <v>78</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>183</v>
+        <v>390</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1101</v>
+        <v>1391</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1102</v>
-      </c>
-      <c r="O442" t="s" s="2">
-        <v>1103</v>
-      </c>
+        <v>1392</v>
+      </c>
+      <c r="O442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" t="s" s="2">
         <v>78</v>
@@ -52805,13 +53033,13 @@
         <v>78</v>
       </c>
       <c r="Y442" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z442" t="s" s="2">
-        <v>1102</v>
+        <v>78</v>
       </c>
       <c r="AA442" t="s" s="2">
-        <v>1104</v>
+        <v>78</v>
       </c>
       <c r="AB442" t="s" s="2">
         <v>78</v>
@@ -52829,16 +53057,16 @@
         <v>78</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>1100</v>
+        <v>1390</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI442" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ442" t="s" s="2">
-        <v>78</v>
+        <v>1393</v>
       </c>
       <c r="AK442" t="s" s="2">
         <v>95</v>
@@ -52849,10 +53077,10 @@
         <v>1470</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1105</v>
+        <v>1394</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1105</v>
+        <v>1394</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -52875,13 +53103,13 @@
         <v>78</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="M443" t="s" s="2">
-        <v>1106</v>
+        <v>1395</v>
       </c>
       <c r="N443" t="s" s="2">
-        <v>1107</v>
+        <v>1396</v>
       </c>
       <c r="O443" s="2"/>
       <c r="P443" s="2"/>
@@ -52932,7 +53160,7 @@
         <v>78</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>1105</v>
+        <v>1394</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>76</v>
@@ -52941,7 +53169,7 @@
         <v>83</v>
       </c>
       <c r="AJ443" t="s" s="2">
-        <v>78</v>
+        <v>1393</v>
       </c>
       <c r="AK443" t="s" s="2">
         <v>95</v>
@@ -52952,10 +53180,10 @@
         <v>1470</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1108</v>
+        <v>1397</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1108</v>
+        <v>1397</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -52975,19 +53203,23 @@
         <v>78</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>1109</v>
+        <v>183</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>1110</v>
+        <v>1398</v>
       </c>
       <c r="N444" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="O444" s="2"/>
-      <c r="P444" s="2"/>
+        <v>1399</v>
+      </c>
+      <c r="O444" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="P444" t="s" s="2">
+        <v>1401</v>
+      </c>
       <c r="Q444" t="s" s="2">
         <v>78</v>
       </c>
@@ -53011,13 +53243,13 @@
         <v>78</v>
       </c>
       <c r="Y444" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z444" t="s" s="2">
-        <v>78</v>
+        <v>1402</v>
       </c>
       <c r="AA444" t="s" s="2">
-        <v>78</v>
+        <v>1403</v>
       </c>
       <c r="AB444" t="s" s="2">
         <v>78</v>
@@ -53035,7 +53267,7 @@
         <v>78</v>
       </c>
       <c r="AG444" t="s" s="2">
-        <v>1108</v>
+        <v>1397</v>
       </c>
       <c r="AH444" t="s" s="2">
         <v>76</v>
@@ -53055,10 +53287,10 @@
         <v>1470</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1112</v>
+        <v>1404</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1112</v>
+        <v>1404</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -53078,19 +53310,23 @@
         <v>78</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>1113</v>
+        <v>183</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1114</v>
+        <v>1405</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>1115</v>
-      </c>
-      <c r="O445" s="2"/>
-      <c r="P445" s="2"/>
+        <v>1406</v>
+      </c>
+      <c r="O445" t="s" s="2">
+        <v>1407</v>
+      </c>
+      <c r="P445" t="s" s="2">
+        <v>1408</v>
+      </c>
       <c r="Q445" t="s" s="2">
         <v>78</v>
       </c>
@@ -53114,13 +53350,13 @@
         <v>78</v>
       </c>
       <c r="Y445" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z445" t="s" s="2">
-        <v>78</v>
+        <v>1409</v>
       </c>
       <c r="AA445" t="s" s="2">
-        <v>78</v>
+        <v>1410</v>
       </c>
       <c r="AB445" t="s" s="2">
         <v>78</v>
@@ -53138,7 +53374,7 @@
         <v>78</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>1112</v>
+        <v>1404</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>76</v>
@@ -53158,10 +53394,10 @@
         <v>1470</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1116</v>
+        <v>1411</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1116</v>
+        <v>1411</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -53169,7 +53405,7 @@
       </c>
       <c r="F446" s="2"/>
       <c r="G446" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H446" t="s" s="2">
         <v>83</v>
@@ -53184,18 +53420,18 @@
         <v>78</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>211</v>
+        <v>1412</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>1117</v>
+        <v>1413</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>1118</v>
-      </c>
-      <c r="O446" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="P446" s="2"/>
+        <v>1414</v>
+      </c>
+      <c r="O446" s="2"/>
+      <c r="P446" t="s" s="2">
+        <v>1415</v>
+      </c>
       <c r="Q446" t="s" s="2">
         <v>78</v>
       </c>
@@ -53243,7 +53479,7 @@
         <v>78</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>1116</v>
+        <v>1411</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>76</v>
@@ -53263,10 +53499,10 @@
         <v>1470</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1120</v>
+        <v>1416</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1120</v>
+        <v>1416</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -53289,17 +53525,15 @@
         <v>78</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>1121</v>
+        <v>192</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1122</v>
+        <v>1417</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="O447" t="s" s="2">
-        <v>1124</v>
-      </c>
+        <v>1418</v>
+      </c>
+      <c r="O447" s="2"/>
       <c r="P447" s="2"/>
       <c r="Q447" t="s" s="2">
         <v>78</v>
@@ -53348,7 +53582,7 @@
         <v>78</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>1120</v>
+        <v>1416</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>76</v>
@@ -53368,14 +53602,14 @@
         <v>1470</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1125</v>
+        <v>1419</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1125</v>
+        <v>1419</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
-        <v>1126</v>
+        <v>78</v>
       </c>
       <c r="F448" s="2"/>
       <c r="G448" t="s" s="2">
@@ -53394,16 +53628,16 @@
         <v>84</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>183</v>
+        <v>1420</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>1127</v>
+        <v>1421</v>
       </c>
       <c r="N448" t="s" s="2">
-        <v>1128</v>
+        <v>1422</v>
       </c>
       <c r="O448" t="s" s="2">
-        <v>1129</v>
+        <v>1423</v>
       </c>
       <c r="P448" s="2"/>
       <c r="Q448" t="s" s="2">
@@ -53429,13 +53663,13 @@
         <v>78</v>
       </c>
       <c r="Y448" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z448" t="s" s="2">
-        <v>1130</v>
+        <v>78</v>
       </c>
       <c r="AA448" t="s" s="2">
-        <v>1131</v>
+        <v>78</v>
       </c>
       <c r="AB448" t="s" s="2">
         <v>78</v>
@@ -53453,7 +53687,7 @@
         <v>78</v>
       </c>
       <c r="AG448" t="s" s="2">
-        <v>1125</v>
+        <v>1419</v>
       </c>
       <c r="AH448" t="s" s="2">
         <v>76</v>
@@ -53473,14 +53707,14 @@
         <v>1470</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1132</v>
+        <v>1424</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1132</v>
+        <v>1424</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
-        <v>1126</v>
+        <v>78</v>
       </c>
       <c r="F449" s="2"/>
       <c r="G449" t="s" s="2">
@@ -53499,16 +53733,16 @@
         <v>84</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>1133</v>
+        <v>1425</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>1134</v>
+        <v>1426</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>1128</v>
+        <v>1427</v>
       </c>
       <c r="O449" t="s" s="2">
-        <v>1129</v>
+        <v>1428</v>
       </c>
       <c r="P449" s="2"/>
       <c r="Q449" t="s" s="2">
@@ -53558,7 +53792,7 @@
         <v>78</v>
       </c>
       <c r="AG449" t="s" s="2">
-        <v>1132</v>
+        <v>1424</v>
       </c>
       <c r="AH449" t="s" s="2">
         <v>76</v>
@@ -53578,10 +53812,10 @@
         <v>1470</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1135</v>
+        <v>1429</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1135</v>
+        <v>1429</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -53607,13 +53841,17 @@
         <v>254</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>1136</v>
+        <v>1430</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>1137</v>
-      </c>
-      <c r="O450" s="2"/>
-      <c r="P450" s="2"/>
+        <v>1431</v>
+      </c>
+      <c r="O450" t="s" s="2">
+        <v>1432</v>
+      </c>
+      <c r="P450" t="s" s="2">
+        <v>1433</v>
+      </c>
       <c r="Q450" t="s" s="2">
         <v>78</v>
       </c>
@@ -53661,7 +53899,7 @@
         <v>78</v>
       </c>
       <c r="AG450" t="s" s="2">
-        <v>1135</v>
+        <v>1429</v>
       </c>
       <c r="AH450" t="s" s="2">
         <v>76</v>
@@ -53681,10 +53919,10 @@
         <v>1470</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1138</v>
+        <v>1434</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1138</v>
+        <v>1434</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -53784,10 +54022,10 @@
         <v>1470</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1139</v>
+        <v>1435</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1139</v>
+        <v>1435</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -53889,10 +54127,10 @@
         <v>1470</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1140</v>
+        <v>1436</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1140</v>
+        <v>1436</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -53996,14 +54234,14 @@
         <v>1470</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1141</v>
+        <v>1437</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1141</v>
+        <v>1437</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
-        <v>1142</v>
+        <v>78</v>
       </c>
       <c r="F454" s="2"/>
       <c r="G454" t="s" s="2">
@@ -54022,18 +54260,20 @@
         <v>84</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>1143</v>
+        <v>183</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1144</v>
+        <v>1438</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>1145</v>
+        <v>1439</v>
       </c>
       <c r="O454" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="P454" s="2"/>
+        <v>1440</v>
+      </c>
+      <c r="P454" t="s" s="2">
+        <v>1296</v>
+      </c>
       <c r="Q454" t="s" s="2">
         <v>78</v>
       </c>
@@ -54057,13 +54297,13 @@
         <v>78</v>
       </c>
       <c r="Y454" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z454" t="s" s="2">
-        <v>78</v>
+        <v>1441</v>
       </c>
       <c r="AA454" t="s" s="2">
-        <v>78</v>
+        <v>1442</v>
       </c>
       <c r="AB454" t="s" s="2">
         <v>78</v>
@@ -54081,7 +54321,7 @@
         <v>78</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>1141</v>
+        <v>1437</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>83</v>
@@ -54101,10 +54341,10 @@
         <v>1470</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1146</v>
+        <v>1443</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1146</v>
+        <v>1443</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -54124,19 +54364,23 @@
         <v>78</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>183</v>
+        <v>1333</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>1147</v>
+        <v>1444</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="O455" s="2"/>
-      <c r="P455" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="O455" t="s" s="2">
+        <v>1445</v>
+      </c>
+      <c r="P455" t="s" s="2">
+        <v>1337</v>
+      </c>
       <c r="Q455" t="s" s="2">
         <v>78</v>
       </c>
@@ -54160,13 +54404,13 @@
         <v>78</v>
       </c>
       <c r="Y455" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z455" t="s" s="2">
-        <v>1149</v>
+        <v>78</v>
       </c>
       <c r="AA455" t="s" s="2">
-        <v>1150</v>
+        <v>78</v>
       </c>
       <c r="AB455" t="s" s="2">
         <v>78</v>
@@ -54184,7 +54428,7 @@
         <v>78</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>1146</v>
+        <v>1443</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>76</v>
@@ -54204,10 +54448,10 @@
         <v>1470</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1151</v>
+        <v>1446</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1151</v>
+        <v>1446</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -54230,16 +54474,20 @@
         <v>78</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>1152</v>
+        <v>183</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>1153</v>
+        <v>1447</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="O456" s="2"/>
-      <c r="P456" s="2"/>
+        <v>1448</v>
+      </c>
+      <c r="O456" t="s" s="2">
+        <v>1449</v>
+      </c>
+      <c r="P456" t="s" s="2">
+        <v>1343</v>
+      </c>
       <c r="Q456" t="s" s="2">
         <v>78</v>
       </c>
@@ -54263,13 +54511,13 @@
         <v>78</v>
       </c>
       <c r="Y456" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z456" t="s" s="2">
-        <v>78</v>
+        <v>1344</v>
       </c>
       <c r="AA456" t="s" s="2">
-        <v>78</v>
+        <v>1345</v>
       </c>
       <c r="AB456" t="s" s="2">
         <v>78</v>
@@ -54287,7 +54535,7 @@
         <v>78</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1151</v>
+        <v>1446</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>76</v>
@@ -54296,7 +54544,7 @@
         <v>83</v>
       </c>
       <c r="AJ456" t="s" s="2">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="AK456" t="s" s="2">
         <v>95</v>
@@ -54307,14 +54555,14 @@
         <v>1470</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1155</v>
+        <v>1450</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1155</v>
+        <v>1450</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
-        <v>78</v>
+        <v>1348</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" t="s" s="2">
@@ -54333,18 +54581,20 @@
         <v>78</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>1156</v>
+        <v>183</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1157</v>
+        <v>1349</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1158</v>
+        <v>1350</v>
       </c>
       <c r="O457" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="P457" s="2"/>
+        <v>1351</v>
+      </c>
+      <c r="P457" t="s" s="2">
+        <v>1352</v>
+      </c>
       <c r="Q457" t="s" s="2">
         <v>78</v>
       </c>
@@ -54368,13 +54618,13 @@
         <v>78</v>
       </c>
       <c r="Y457" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="Z457" t="s" s="2">
-        <v>78</v>
+        <v>1353</v>
       </c>
       <c r="AA457" t="s" s="2">
-        <v>78</v>
+        <v>1354</v>
       </c>
       <c r="AB457" t="s" s="2">
         <v>78</v>
@@ -54392,7 +54642,7 @@
         <v>78</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1155</v>
+        <v>1450</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>76</v>
@@ -54412,10 +54662,10 @@
         <v>1470</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1160</v>
+        <v>1451</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1160</v>
+        <v>1451</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -54426,7 +54676,7 @@
         <v>76</v>
       </c>
       <c r="H458" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I458" t="s" s="2">
         <v>78</v>
@@ -54438,18 +54688,20 @@
         <v>78</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1161</v>
+        <v>1452</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>1162</v>
+        <v>1453</v>
       </c>
       <c r="O458" t="s" s="2">
-        <v>1163</v>
-      </c>
-      <c r="P458" s="2"/>
+        <v>1384</v>
+      </c>
+      <c r="P458" t="s" s="2">
+        <v>1385</v>
+      </c>
       <c r="Q458" t="s" s="2">
         <v>78</v>
       </c>
@@ -54497,13 +54749,13 @@
         <v>78</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>1160</v>
+        <v>1451</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI458" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ458" t="s" s="2">
         <v>78</v>
@@ -54514,24 +54766,24 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1164</v>
+        <v>1012</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1164</v>
+        <v>1012</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
-        <v>78</v>
+        <v>1014</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H459" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I459" t="s" s="2">
         <v>78</v>
@@ -54543,13 +54795,13 @@
         <v>78</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>260</v>
+        <v>1015</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>261</v>
+        <v>1016</v>
       </c>
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
@@ -54600,13 +54852,13 @@
         <v>78</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>262</v>
+        <v>1012</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI459" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ459" t="s" s="2">
         <v>78</v>
@@ -54617,24 +54869,24 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1165</v>
+        <v>1017</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1165</v>
+        <v>1017</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F460" s="2"/>
       <c r="G460" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H460" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I460" t="s" s="2">
         <v>78</v>
@@ -54643,19 +54895,19 @@
         <v>78</v>
       </c>
       <c r="K460" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="N460" t="s" s="2">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="O460" t="s" s="2">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="P460" s="2"/>
       <c r="Q460" t="s" s="2">
@@ -54705,66 +54957,62 @@
         <v>78</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="AH460" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI460" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ460" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK460" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1166</v>
+        <v>1018</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1166</v>
+        <v>1018</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F461" s="2"/>
       <c r="G461" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H461" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I461" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K461" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O461" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P461" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="O461" s="2"/>
+      <c r="P461" s="2"/>
       <c r="Q461" t="s" s="2">
         <v>78</v>
       </c>
@@ -54812,30 +55060,30 @@
         <v>78</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI461" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ461" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK461" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1167</v>
+        <v>1019</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -54852,21 +55100,23 @@
         <v>78</v>
       </c>
       <c r="J462" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K462" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1168</v>
+        <v>98</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="O462" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O462" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="P462" s="2"/>
       <c r="Q462" t="s" s="2">
         <v>78</v>
@@ -54915,7 +55165,7 @@
         <v>78</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1167</v>
+        <v>101</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>76</v>
@@ -54932,13 +55182,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -54961,15 +55211,17 @@
         <v>78</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>1171</v>
+        <v>103</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1172</v>
+        <v>104</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1173</v>
-      </c>
-      <c r="O463" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="O463" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P463" s="2"/>
       <c r="Q463" t="s" s="2">
         <v>78</v>
@@ -54994,13 +55246,13 @@
         <v>78</v>
       </c>
       <c r="Y463" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="Z463" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AA463" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AB463" t="s" s="2">
         <v>78</v>
@@ -55018,7 +55270,7 @@
         <v>78</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1170</v>
+        <v>110</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>76</v>
@@ -55035,17 +55287,17 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1174</v>
+        <v>1021</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1174</v>
+        <v>1021</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" t="s" s="2">
@@ -55064,15 +55316,17 @@
         <v>78</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1175</v>
+        <v>114</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="O464" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O464" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P464" s="2"/>
       <c r="Q464" t="s" s="2">
         <v>78</v>
@@ -55097,13 +55351,13 @@
         <v>78</v>
       </c>
       <c r="Y464" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z464" t="s" s="2">
-        <v>1177</v>
+        <v>78</v>
       </c>
       <c r="AA464" t="s" s="2">
-        <v>1178</v>
+        <v>78</v>
       </c>
       <c r="AB464" t="s" s="2">
         <v>78</v>
@@ -55121,7 +55375,7 @@
         <v>78</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1174</v>
+        <v>117</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>76</v>
@@ -55138,24 +55392,24 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H465" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I465" t="s" s="2">
         <v>78</v>
@@ -55167,15 +55421,17 @@
         <v>78</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1180</v>
+        <v>121</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1181</v>
-      </c>
-      <c r="O465" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="O465" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="P465" s="2"/>
       <c r="Q465" t="s" s="2">
         <v>78</v>
@@ -55200,13 +55456,13 @@
         <v>78</v>
       </c>
       <c r="Y465" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z465" t="s" s="2">
-        <v>1182</v>
+        <v>78</v>
       </c>
       <c r="AA465" t="s" s="2">
-        <v>1183</v>
+        <v>78</v>
       </c>
       <c r="AB465" t="s" s="2">
         <v>78</v>
@@ -55224,34 +55480,34 @@
         <v>78</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1179</v>
+        <v>124</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI465" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ465" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK465" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1184</v>
+        <v>1023</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1184</v>
+        <v>1023</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F466" s="2"/>
       <c r="G466" t="s" s="2">
@@ -55270,20 +55526,18 @@
         <v>78</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>1185</v>
+        <v>128</v>
       </c>
       <c r="N466" t="s" s="2">
-        <v>1186</v>
+        <v>129</v>
       </c>
       <c r="O466" t="s" s="2">
-        <v>1187</v>
-      </c>
-      <c r="P466" t="s" s="2">
-        <v>1188</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P466" s="2"/>
       <c r="Q466" t="s" s="2">
         <v>78</v>
       </c>
@@ -55307,13 +55561,13 @@
         <v>78</v>
       </c>
       <c r="Y466" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z466" t="s" s="2">
-        <v>1189</v>
+        <v>78</v>
       </c>
       <c r="AA466" t="s" s="2">
-        <v>1190</v>
+        <v>78</v>
       </c>
       <c r="AB466" t="s" s="2">
         <v>78</v>
@@ -55331,7 +55585,7 @@
         <v>78</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>1184</v>
+        <v>131</v>
       </c>
       <c r="AH466" t="s" s="2">
         <v>76</v>
@@ -55343,22 +55597,22 @@
         <v>78</v>
       </c>
       <c r="AK466" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1191</v>
+        <v>1027</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1191</v>
+        <v>1027</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" t="s" s="2">
@@ -55371,22 +55625,26 @@
         <v>78</v>
       </c>
       <c r="J467" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K467" t="s" s="2">
         <v>78</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>1192</v>
+        <v>134</v>
       </c>
       <c r="N467" t="s" s="2">
-        <v>1193</v>
-      </c>
-      <c r="O467" s="2"/>
-      <c r="P467" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O467" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P467" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q467" t="s" s="2">
         <v>78</v>
       </c>
@@ -55410,13 +55668,13 @@
         <v>78</v>
       </c>
       <c r="Y467" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z467" t="s" s="2">
-        <v>1194</v>
+        <v>78</v>
       </c>
       <c r="AA467" t="s" s="2">
-        <v>1195</v>
+        <v>78</v>
       </c>
       <c r="AB467" t="s" s="2">
         <v>78</v>
@@ -55434,7 +55692,7 @@
         <v>78</v>
       </c>
       <c r="AG467" t="s" s="2">
-        <v>1191</v>
+        <v>137</v>
       </c>
       <c r="AH467" t="s" s="2">
         <v>76</v>
@@ -55446,18 +55704,18 @@
         <v>78</v>
       </c>
       <c r="AK467" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -55477,16 +55735,16 @@
         <v>78</v>
       </c>
       <c r="K468" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>1197</v>
+        <v>1029</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>1198</v>
+        <v>1030</v>
       </c>
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
@@ -55513,13 +55771,13 @@
         <v>78</v>
       </c>
       <c r="Y468" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Z468" t="s" s="2">
-        <v>1199</v>
+        <v>78</v>
       </c>
       <c r="AA468" t="s" s="2">
-        <v>1200</v>
+        <v>78</v>
       </c>
       <c r="AB468" t="s" s="2">
         <v>78</v>
@@ -55537,7 +55795,7 @@
         <v>78</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>76</v>
@@ -55554,13 +55812,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -55568,7 +55826,7 @@
       </c>
       <c r="F469" s="2"/>
       <c r="G469" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H469" t="s" s="2">
         <v>83</v>
@@ -55577,21 +55835,23 @@
         <v>78</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L469" t="s" s="2">
-        <v>1171</v>
+        <v>103</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1202</v>
+        <v>1032</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1203</v>
-      </c>
-      <c r="O469" s="2"/>
+        <v>1033</v>
+      </c>
+      <c r="O469" t="s" s="2">
+        <v>1034</v>
+      </c>
       <c r="P469" s="2"/>
       <c r="Q469" t="s" s="2">
         <v>78</v>
@@ -55616,13 +55876,13 @@
         <v>78</v>
       </c>
       <c r="Y469" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>78</v>
+        <v>1035</v>
       </c>
       <c r="AA469" t="s" s="2">
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="AB469" t="s" s="2">
         <v>78</v>
@@ -55640,10 +55900,10 @@
         <v>78</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1201</v>
+        <v>1031</v>
       </c>
       <c r="AH469" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI469" t="s" s="2">
         <v>83</v>
@@ -55657,13 +55917,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -55674,7 +55934,7 @@
         <v>76</v>
       </c>
       <c r="H470" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I470" t="s" s="2">
         <v>78</v>
@@ -55686,15 +55946,17 @@
         <v>78</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1205</v>
+        <v>1038</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1206</v>
-      </c>
-      <c r="O470" s="2"/>
+        <v>1039</v>
+      </c>
+      <c r="O470" t="s" s="2">
+        <v>1040</v>
+      </c>
       <c r="P470" s="2"/>
       <c r="Q470" t="s" s="2">
         <v>78</v>
@@ -55719,13 +55981,13 @@
         <v>78</v>
       </c>
       <c r="Y470" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z470" t="s" s="2">
-        <v>1207</v>
+        <v>78</v>
       </c>
       <c r="AA470" t="s" s="2">
-        <v>1208</v>
+        <v>78</v>
       </c>
       <c r="AB470" t="s" s="2">
         <v>78</v>
@@ -55743,13 +56005,13 @@
         <v>78</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1204</v>
+        <v>1037</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI470" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ470" t="s" s="2">
         <v>78</v>
@@ -55760,13 +56022,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1209</v>
+        <v>1041</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1209</v>
+        <v>1041</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -55777,7 +56039,7 @@
         <v>76</v>
       </c>
       <c r="H471" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I471" t="s" s="2">
         <v>78</v>
@@ -55789,17 +56051,15 @@
         <v>78</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1210</v>
+        <v>260</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1211</v>
-      </c>
-      <c r="O471" t="s" s="2">
-        <v>1212</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O471" s="2"/>
       <c r="P471" s="2"/>
       <c r="Q471" t="s" s="2">
         <v>78</v>
@@ -55848,41 +56108,41 @@
         <v>78</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1209</v>
+        <v>262</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI471" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ471" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1213</v>
+        <v>1042</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1213</v>
+        <v>1042</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H472" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I472" t="s" s="2">
         <v>78</v>
@@ -55894,15 +56154,17 @@
         <v>78</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O472" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O472" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P472" s="2"/>
       <c r="Q472" t="s" s="2">
         <v>78</v>
@@ -55951,34 +56213,34 @@
         <v>78</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI472" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ472" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK472" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1214</v>
+        <v>1043</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1214</v>
+        <v>1043</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="F473" s="2"/>
       <c r="G473" t="s" s="2">
@@ -55991,24 +56253,26 @@
         <v>78</v>
       </c>
       <c r="J473" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K473" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L473" t="s" s="2">
         <v>127</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O473" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="P473" s="2"/>
+      <c r="P473" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q473" t="s" s="2">
         <v>78</v>
       </c>
@@ -56056,7 +56320,7 @@
         <v>78</v>
       </c>
       <c r="AG473" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AH473" t="s" s="2">
         <v>76</v>
@@ -56073,49 +56337,45 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1215</v>
+        <v>1044</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1215</v>
+        <v>1044</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="F474" s="2"/>
       <c r="G474" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H474" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I474" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J474" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K474" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>268</v>
+        <v>1032</v>
       </c>
       <c r="N474" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O474" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P474" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="O474" s="2"/>
+      <c r="P474" s="2"/>
       <c r="Q474" t="s" s="2">
         <v>78</v>
       </c>
@@ -56139,13 +56399,13 @@
         <v>78</v>
       </c>
       <c r="Y474" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z474" t="s" s="2">
-        <v>78</v>
+        <v>1035</v>
       </c>
       <c r="AA474" t="s" s="2">
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="AB474" t="s" s="2">
         <v>78</v>
@@ -56163,30 +56423,30 @@
         <v>78</v>
       </c>
       <c r="AG474" t="s" s="2">
-        <v>270</v>
+        <v>1044</v>
       </c>
       <c r="AH474" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI474" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ474" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK474" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -56209,13 +56469,13 @@
         <v>78</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>369</v>
+        <v>211</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>1217</v>
+        <v>1046</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>1218</v>
+        <v>1047</v>
       </c>
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
@@ -56266,7 +56526,7 @@
         <v>78</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>1216</v>
+        <v>1045</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>83</v>
@@ -56283,13 +56543,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -56297,7 +56557,7 @@
       </c>
       <c r="F476" s="2"/>
       <c r="G476" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H476" t="s" s="2">
         <v>83</v>
@@ -56309,20 +56569,18 @@
         <v>78</v>
       </c>
       <c r="K476" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>103</v>
+        <v>1049</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>1220</v>
+        <v>1050</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>1221</v>
-      </c>
-      <c r="O476" t="s" s="2">
-        <v>1222</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="O476" s="2"/>
       <c r="P476" s="2"/>
       <c r="Q476" t="s" s="2">
         <v>78</v>
@@ -56347,13 +56605,13 @@
         <v>78</v>
       </c>
       <c r="Y476" t="s" s="2">
-        <v>173</v>
+        <v>449</v>
       </c>
       <c r="Z476" t="s" s="2">
-        <v>1223</v>
+        <v>1052</v>
       </c>
       <c r="AA476" t="s" s="2">
-        <v>1224</v>
+        <v>1053</v>
       </c>
       <c r="AB476" t="s" s="2">
         <v>78</v>
@@ -56371,10 +56629,10 @@
         <v>78</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1219</v>
+        <v>1048</v>
       </c>
       <c r="AH476" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI476" t="s" s="2">
         <v>83</v>
@@ -56388,13 +56646,13 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -56405,7 +56663,7 @@
         <v>76</v>
       </c>
       <c r="H477" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I477" t="s" s="2">
         <v>78</v>
@@ -56417,17 +56675,15 @@
         <v>78</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1226</v>
+        <v>1055</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>1227</v>
-      </c>
-      <c r="O477" t="s" s="2">
-        <v>1228</v>
-      </c>
+        <v>1056</v>
+      </c>
+      <c r="O477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" t="s" s="2">
         <v>78</v>
@@ -56452,13 +56708,13 @@
         <v>78</v>
       </c>
       <c r="Y477" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z477" t="s" s="2">
-        <v>1229</v>
+        <v>78</v>
       </c>
       <c r="AA477" t="s" s="2">
-        <v>1230</v>
+        <v>78</v>
       </c>
       <c r="AB477" t="s" s="2">
         <v>78</v>
@@ -56476,13 +56732,13 @@
         <v>78</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1225</v>
+        <v>1054</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI477" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ477" t="s" s="2">
         <v>78</v>
@@ -56493,13 +56749,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1231</v>
+        <v>1057</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1231</v>
+        <v>1057</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -56522,13 +56778,13 @@
         <v>78</v>
       </c>
       <c r="L478" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M478" t="s" s="2">
-        <v>1232</v>
+        <v>260</v>
       </c>
       <c r="N478" t="s" s="2">
-        <v>1233</v>
+        <v>261</v>
       </c>
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
@@ -56579,7 +56835,7 @@
         <v>78</v>
       </c>
       <c r="AG478" t="s" s="2">
-        <v>1231</v>
+        <v>262</v>
       </c>
       <c r="AH478" t="s" s="2">
         <v>76</v>
@@ -56591,29 +56847,29 @@
         <v>78</v>
       </c>
       <c r="AK478" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1234</v>
+        <v>1058</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1234</v>
+        <v>1058</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H479" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I479" t="s" s="2">
         <v>78</v>
@@ -56625,15 +56881,17 @@
         <v>78</v>
       </c>
       <c r="L479" t="s" s="2">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>1235</v>
+        <v>128</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>1236</v>
-      </c>
-      <c r="O479" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O479" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P479" s="2"/>
       <c r="Q479" t="s" s="2">
         <v>78</v>
@@ -56682,64 +56940,66 @@
         <v>78</v>
       </c>
       <c r="AG479" t="s" s="2">
-        <v>1234</v>
+        <v>265</v>
       </c>
       <c r="AH479" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI479" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ479" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK479" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1237</v>
+        <v>1059</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1237</v>
+        <v>1059</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H480" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I480" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J480" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K480" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="M480" t="s" s="2">
-        <v>1238</v>
+        <v>268</v>
       </c>
       <c r="N480" t="s" s="2">
-        <v>1239</v>
+        <v>269</v>
       </c>
       <c r="O480" t="s" s="2">
-        <v>1240</v>
-      </c>
-      <c r="P480" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="P480" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q480" t="s" s="2">
         <v>78</v>
       </c>
@@ -56787,18 +57047,5327 @@
         <v>78</v>
       </c>
       <c r="AG480" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH480" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI480" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK480" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B481" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="C481" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D481" s="2"/>
+      <c r="E481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F481" s="2"/>
+      <c r="G481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L481" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="M481" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="N481" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="O481" s="2"/>
+      <c r="P481" s="2"/>
+      <c r="Q481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R481" s="2"/>
+      <c r="S481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y481" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z481" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AA481" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="AB481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG481" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="AH481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI481" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ481" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK481" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B482" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="C482" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="D482" s="2"/>
+      <c r="E482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F482" s="2"/>
+      <c r="G482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L482" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M482" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="N482" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="O482" s="2"/>
+      <c r="P482" s="2"/>
+      <c r="Q482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R482" s="2"/>
+      <c r="S482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG482" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="AH482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI482" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ482" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK482" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B483" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="C483" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D483" s="2"/>
+      <c r="E483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F483" s="2"/>
+      <c r="G483" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H483" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K483" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L483" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M483" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="N483" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="O483" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="P483" s="2"/>
+      <c r="Q483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R483" s="2"/>
+      <c r="S483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y483" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z483" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="AA483" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="AB483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG483" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="AH483" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI483" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ483" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK483" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B484" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="C484" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D484" s="2"/>
+      <c r="E484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F484" s="2"/>
+      <c r="G484" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H484" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K484" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L484" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M484" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="N484" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="O484" s="2"/>
+      <c r="P484" s="2"/>
+      <c r="Q484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R484" s="2"/>
+      <c r="S484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y484" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z484" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="AA484" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="AB484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG484" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="AH484" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI484" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ484" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK484" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B485" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="C485" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="D485" s="2"/>
+      <c r="E485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F485" s="2"/>
+      <c r="G485" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H485" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L485" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M485" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="N485" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="O485" s="2"/>
+      <c r="P485" s="2"/>
+      <c r="Q485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R485" s="2"/>
+      <c r="S485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y485" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z485" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="AA485" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="AB485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG485" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="AH485" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI485" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ485" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK485" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B486" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="C486" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="D486" s="2"/>
+      <c r="E486" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="F486" s="2"/>
+      <c r="G486" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H486" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K486" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L486" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M486" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="N486" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="O486" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="P486" s="2"/>
+      <c r="Q486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R486" s="2"/>
+      <c r="S486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG486" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="AH486" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI486" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ486" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK486" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B487" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="C487" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="D487" s="2"/>
+      <c r="E487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F487" s="2"/>
+      <c r="G487" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H487" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K487" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L487" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M487" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="N487" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="O487" s="2"/>
+      <c r="P487" s="2"/>
+      <c r="Q487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R487" s="2"/>
+      <c r="S487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG487" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="AH487" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI487" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ487" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK487" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B488" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="C488" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="D488" s="2"/>
+      <c r="E488" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="F488" s="2"/>
+      <c r="G488" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H488" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L488" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="M488" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="N488" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="O488" s="2"/>
+      <c r="P488" s="2"/>
+      <c r="Q488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R488" s="2"/>
+      <c r="S488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG488" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="AH488" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI488" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK488" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B489" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="C489" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="D489" s="2"/>
+      <c r="E489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F489" s="2"/>
+      <c r="G489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H489" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K489" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L489" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M489" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="N489" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="O489" s="2"/>
+      <c r="P489" s="2"/>
+      <c r="Q489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R489" s="2"/>
+      <c r="S489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG489" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="AH489" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI489" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK489" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B490" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="C490" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="D490" s="2"/>
+      <c r="E490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F490" s="2"/>
+      <c r="G490" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H490" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L490" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M490" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N490" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O490" s="2"/>
+      <c r="P490" s="2"/>
+      <c r="Q490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R490" s="2"/>
+      <c r="S490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG490" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH490" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI490" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ490" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK490" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B491" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="C491" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="D491" s="2"/>
+      <c r="E491" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F491" s="2"/>
+      <c r="G491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H491" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L491" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M491" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N491" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O491" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P491" s="2"/>
+      <c r="Q491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R491" s="2"/>
+      <c r="S491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG491" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH491" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI491" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ491" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK491" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B492" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="C492" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="D492" s="2"/>
+      <c r="E492" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F492" s="2"/>
+      <c r="G492" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H492" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J492" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K492" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L492" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M492" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N492" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O492" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P492" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R492" s="2"/>
+      <c r="S492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG492" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH492" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI492" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ492" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK492" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B493" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C493" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D493" s="2"/>
+      <c r="E493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F493" s="2"/>
+      <c r="G493" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H493" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K493" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L493" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M493" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="N493" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="O493" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="P493" s="2"/>
+      <c r="Q493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R493" s="2"/>
+      <c r="S493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y493" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z493" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="AA493" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="AB493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG493" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="AH493" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI493" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ493" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK493" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B494" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C494" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="D494" s="2"/>
+      <c r="E494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F494" s="2"/>
+      <c r="G494" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H494" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L494" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M494" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="N494" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="O494" s="2"/>
+      <c r="P494" s="2"/>
+      <c r="Q494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R494" s="2"/>
+      <c r="S494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG494" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="AH494" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI494" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ494" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK494" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B495" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="C495" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="D495" s="2"/>
+      <c r="E495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F495" s="2"/>
+      <c r="G495" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H495" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K495" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L495" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="M495" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="N495" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="O495" s="2"/>
+      <c r="P495" s="2"/>
+      <c r="Q495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R495" s="2"/>
+      <c r="S495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG495" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="AH495" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI495" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ495" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK495" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B496" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="C496" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="D496" s="2"/>
+      <c r="E496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F496" s="2"/>
+      <c r="G496" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H496" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K496" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L496" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="M496" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="N496" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="O496" s="2"/>
+      <c r="P496" s="2"/>
+      <c r="Q496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R496" s="2"/>
+      <c r="S496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG496" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="AH496" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI496" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ496" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK496" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B497" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="C497" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="D497" s="2"/>
+      <c r="E497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F497" s="2"/>
+      <c r="G497" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H497" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L497" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M497" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="N497" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="O497" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="P497" s="2"/>
+      <c r="Q497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R497" s="2"/>
+      <c r="S497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG497" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="AH497" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI497" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ497" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK497" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B498" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="C498" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="D498" s="2"/>
+      <c r="E498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F498" s="2"/>
+      <c r="G498" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H498" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L498" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="M498" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="N498" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="O498" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="P498" s="2"/>
+      <c r="Q498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R498" s="2"/>
+      <c r="S498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG498" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AH498" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI498" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ498" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK498" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B499" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="C499" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="D499" s="2"/>
+      <c r="E499" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="F499" s="2"/>
+      <c r="G499" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H499" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K499" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L499" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M499" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="N499" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O499" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P499" s="2"/>
+      <c r="Q499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R499" s="2"/>
+      <c r="S499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y499" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z499" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="AA499" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="AB499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG499" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="AH499" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI499" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK499" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B500" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="C500" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="D500" s="2"/>
+      <c r="E500" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="F500" s="2"/>
+      <c r="G500" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H500" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K500" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L500" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="M500" t="s" s="2">
+        <v>1134</v>
+      </c>
+      <c r="N500" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O500" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P500" s="2"/>
+      <c r="Q500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R500" s="2"/>
+      <c r="S500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG500" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="AH500" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI500" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK500" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B501" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="C501" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="D501" s="2"/>
+      <c r="E501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F501" s="2"/>
+      <c r="G501" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H501" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K501" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L501" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M501" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="N501" t="s" s="2">
+        <v>1137</v>
+      </c>
+      <c r="O501" s="2"/>
+      <c r="P501" s="2"/>
+      <c r="Q501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R501" s="2"/>
+      <c r="S501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG501" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="AH501" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI501" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ501" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK501" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B502" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="C502" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="D502" s="2"/>
+      <c r="E502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F502" s="2"/>
+      <c r="G502" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H502" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L502" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M502" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N502" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O502" s="2"/>
+      <c r="P502" s="2"/>
+      <c r="Q502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R502" s="2"/>
+      <c r="S502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG502" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH502" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI502" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ502" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK502" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B503" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="C503" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="D503" s="2"/>
+      <c r="E503" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F503" s="2"/>
+      <c r="G503" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H503" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L503" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M503" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N503" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O503" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P503" s="2"/>
+      <c r="Q503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R503" s="2"/>
+      <c r="S503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG503" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH503" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI503" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ503" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK503" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B504" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="C504" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="D504" s="2"/>
+      <c r="E504" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F504" s="2"/>
+      <c r="G504" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H504" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J504" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K504" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L504" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M504" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N504" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O504" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P504" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R504" s="2"/>
+      <c r="S504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG504" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH504" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI504" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ504" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK504" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B505" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="C505" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D505" s="2"/>
+      <c r="E505" t="s" s="2">
+        <v>1142</v>
+      </c>
+      <c r="F505" s="2"/>
+      <c r="G505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K505" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L505" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="M505" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="N505" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="O505" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="P505" s="2"/>
+      <c r="Q505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R505" s="2"/>
+      <c r="S505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG505" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="AH505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI505" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ505" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK505" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B506" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="C506" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="D506" s="2"/>
+      <c r="E506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F506" s="2"/>
+      <c r="G506" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H506" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L506" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M506" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="N506" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="O506" s="2"/>
+      <c r="P506" s="2"/>
+      <c r="Q506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R506" s="2"/>
+      <c r="S506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y506" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z506" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="AA506" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="AB506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG506" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="AH506" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI506" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ506" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK506" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B507" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="C507" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="D507" s="2"/>
+      <c r="E507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F507" s="2"/>
+      <c r="G507" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H507" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L507" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="M507" t="s" s="2">
+        <v>1153</v>
+      </c>
+      <c r="N507" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="O507" s="2"/>
+      <c r="P507" s="2"/>
+      <c r="Q507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R507" s="2"/>
+      <c r="S507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG507" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="AH507" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI507" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ507" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK507" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B508" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="C508" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="D508" s="2"/>
+      <c r="E508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F508" s="2"/>
+      <c r="G508" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H508" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L508" t="s" s="2">
+        <v>1156</v>
+      </c>
+      <c r="M508" t="s" s="2">
+        <v>1157</v>
+      </c>
+      <c r="N508" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="O508" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="P508" s="2"/>
+      <c r="Q508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R508" s="2"/>
+      <c r="S508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG508" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="AH508" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI508" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ508" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK508" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B509" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C509" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="D509" s="2"/>
+      <c r="E509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F509" s="2"/>
+      <c r="G509" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H509" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L509" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M509" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="N509" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="O509" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="P509" s="2"/>
+      <c r="Q509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R509" s="2"/>
+      <c r="S509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG509" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="AH509" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI509" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ509" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK509" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B510" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="C510" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="D510" s="2"/>
+      <c r="E510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F510" s="2"/>
+      <c r="G510" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H510" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L510" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M510" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N510" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O510" s="2"/>
+      <c r="P510" s="2"/>
+      <c r="Q510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R510" s="2"/>
+      <c r="S510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG510" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH510" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI510" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ510" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK510" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B511" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="C511" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="D511" s="2"/>
+      <c r="E511" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F511" s="2"/>
+      <c r="G511" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H511" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L511" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M511" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N511" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O511" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P511" s="2"/>
+      <c r="Q511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R511" s="2"/>
+      <c r="S511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG511" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH511" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI511" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ511" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK511" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B512" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="C512" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="D512" s="2"/>
+      <c r="E512" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F512" s="2"/>
+      <c r="G512" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H512" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J512" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K512" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L512" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M512" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N512" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O512" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P512" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R512" s="2"/>
+      <c r="S512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG512" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH512" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI512" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ512" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK512" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B513" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="C513" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="D513" s="2"/>
+      <c r="E513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F513" s="2"/>
+      <c r="G513" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H513" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L513" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M513" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="N513" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="O513" s="2"/>
+      <c r="P513" s="2"/>
+      <c r="Q513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R513" s="2"/>
+      <c r="S513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG513" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="AH513" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI513" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ513" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK513" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B514" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="C514" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="D514" s="2"/>
+      <c r="E514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F514" s="2"/>
+      <c r="G514" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H514" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L514" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="M514" t="s" s="2">
+        <v>1172</v>
+      </c>
+      <c r="N514" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="O514" s="2"/>
+      <c r="P514" s="2"/>
+      <c r="Q514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R514" s="2"/>
+      <c r="S514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG514" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="AH514" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI514" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ514" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK514" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B515" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="C515" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="D515" s="2"/>
+      <c r="E515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F515" s="2"/>
+      <c r="G515" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H515" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L515" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M515" t="s" s="2">
+        <v>1175</v>
+      </c>
+      <c r="N515" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="O515" s="2"/>
+      <c r="P515" s="2"/>
+      <c r="Q515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R515" s="2"/>
+      <c r="S515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y515" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z515" t="s" s="2">
+        <v>1177</v>
+      </c>
+      <c r="AA515" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="AB515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG515" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="AH515" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI515" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ515" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK515" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B516" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="C516" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="D516" s="2"/>
+      <c r="E516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F516" s="2"/>
+      <c r="G516" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H516" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L516" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M516" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="N516" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="O516" s="2"/>
+      <c r="P516" s="2"/>
+      <c r="Q516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R516" s="2"/>
+      <c r="S516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y516" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z516" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="AA516" t="s" s="2">
+        <v>1183</v>
+      </c>
+      <c r="AB516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG516" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="AH516" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI516" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ516" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK516" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B517" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="C517" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="D517" s="2"/>
+      <c r="E517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F517" s="2"/>
+      <c r="G517" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H517" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L517" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M517" t="s" s="2">
+        <v>1185</v>
+      </c>
+      <c r="N517" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="O517" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="P517" t="s" s="2">
+        <v>1188</v>
+      </c>
+      <c r="Q517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R517" s="2"/>
+      <c r="S517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y517" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z517" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="AA517" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AB517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG517" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="AH517" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI517" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ517" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK517" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B518" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="C518" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="D518" s="2"/>
+      <c r="E518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F518" s="2"/>
+      <c r="G518" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H518" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L518" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M518" t="s" s="2">
+        <v>1192</v>
+      </c>
+      <c r="N518" t="s" s="2">
+        <v>1193</v>
+      </c>
+      <c r="O518" s="2"/>
+      <c r="P518" s="2"/>
+      <c r="Q518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R518" s="2"/>
+      <c r="S518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y518" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z518" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="AA518" t="s" s="2">
+        <v>1195</v>
+      </c>
+      <c r="AB518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG518" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="AH518" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI518" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ518" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK518" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B519" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="C519" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="D519" s="2"/>
+      <c r="E519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F519" s="2"/>
+      <c r="G519" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H519" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L519" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M519" t="s" s="2">
+        <v>1197</v>
+      </c>
+      <c r="N519" t="s" s="2">
+        <v>1198</v>
+      </c>
+      <c r="O519" s="2"/>
+      <c r="P519" s="2"/>
+      <c r="Q519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R519" s="2"/>
+      <c r="S519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y519" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z519" t="s" s="2">
+        <v>1199</v>
+      </c>
+      <c r="AA519" t="s" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AB519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG519" t="s" s="2">
+        <v>1196</v>
+      </c>
+      <c r="AH519" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI519" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ519" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK519" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B520" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="C520" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D520" s="2"/>
+      <c r="E520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F520" s="2"/>
+      <c r="G520" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H520" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L520" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="M520" t="s" s="2">
+        <v>1202</v>
+      </c>
+      <c r="N520" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="O520" s="2"/>
+      <c r="P520" s="2"/>
+      <c r="Q520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R520" s="2"/>
+      <c r="S520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG520" t="s" s="2">
+        <v>1201</v>
+      </c>
+      <c r="AH520" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI520" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ520" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK520" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B521" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="C521" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="D521" s="2"/>
+      <c r="E521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F521" s="2"/>
+      <c r="G521" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H521" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L521" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M521" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="N521" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="O521" s="2"/>
+      <c r="P521" s="2"/>
+      <c r="Q521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R521" s="2"/>
+      <c r="S521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y521" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z521" t="s" s="2">
+        <v>1207</v>
+      </c>
+      <c r="AA521" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="AB521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG521" t="s" s="2">
+        <v>1204</v>
+      </c>
+      <c r="AH521" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI521" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ521" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK521" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B522" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="C522" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="D522" s="2"/>
+      <c r="E522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F522" s="2"/>
+      <c r="G522" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H522" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L522" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M522" t="s" s="2">
+        <v>1210</v>
+      </c>
+      <c r="N522" t="s" s="2">
+        <v>1211</v>
+      </c>
+      <c r="O522" t="s" s="2">
+        <v>1212</v>
+      </c>
+      <c r="P522" s="2"/>
+      <c r="Q522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R522" s="2"/>
+      <c r="S522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG522" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="AH522" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI522" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ522" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK522" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B523" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="C523" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="D523" s="2"/>
+      <c r="E523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F523" s="2"/>
+      <c r="G523" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H523" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L523" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M523" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N523" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O523" s="2"/>
+      <c r="P523" s="2"/>
+      <c r="Q523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R523" s="2"/>
+      <c r="S523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG523" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AH523" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI523" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ523" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK523" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B524" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="C524" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="D524" s="2"/>
+      <c r="E524" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F524" s="2"/>
+      <c r="G524" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H524" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L524" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M524" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N524" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O524" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P524" s="2"/>
+      <c r="Q524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R524" s="2"/>
+      <c r="S524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG524" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH524" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI524" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ524" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK524" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B525" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="C525" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="D525" s="2"/>
+      <c r="E525" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="F525" s="2"/>
+      <c r="G525" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H525" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J525" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K525" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L525" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M525" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N525" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O525" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P525" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R525" s="2"/>
+      <c r="S525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG525" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AH525" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI525" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ525" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK525" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B526" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="C526" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="D526" s="2"/>
+      <c r="E526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F526" s="2"/>
+      <c r="G526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L526" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M526" t="s" s="2">
+        <v>1217</v>
+      </c>
+      <c r="N526" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="O526" s="2"/>
+      <c r="P526" s="2"/>
+      <c r="Q526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R526" s="2"/>
+      <c r="S526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG526" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="AH526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI526" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ526" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK526" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B527" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="C527" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="D527" s="2"/>
+      <c r="E527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F527" s="2"/>
+      <c r="G527" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H527" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L527" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M527" t="s" s="2">
+        <v>1220</v>
+      </c>
+      <c r="N527" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="O527" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="P527" s="2"/>
+      <c r="Q527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R527" s="2"/>
+      <c r="S527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y527" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z527" t="s" s="2">
+        <v>1223</v>
+      </c>
+      <c r="AA527" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="AB527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG527" t="s" s="2">
+        <v>1219</v>
+      </c>
+      <c r="AH527" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI527" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ527" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK527" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B528" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="C528" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="D528" s="2"/>
+      <c r="E528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F528" s="2"/>
+      <c r="G528" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H528" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L528" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M528" t="s" s="2">
+        <v>1226</v>
+      </c>
+      <c r="N528" t="s" s="2">
+        <v>1227</v>
+      </c>
+      <c r="O528" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="P528" s="2"/>
+      <c r="Q528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R528" s="2"/>
+      <c r="S528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y528" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z528" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="AA528" t="s" s="2">
+        <v>1230</v>
+      </c>
+      <c r="AB528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG528" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="AH528" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI528" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ528" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK528" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B529" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="C529" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="D529" s="2"/>
+      <c r="E529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F529" s="2"/>
+      <c r="G529" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H529" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L529" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M529" t="s" s="2">
+        <v>1232</v>
+      </c>
+      <c r="N529" t="s" s="2">
+        <v>1233</v>
+      </c>
+      <c r="O529" s="2"/>
+      <c r="P529" s="2"/>
+      <c r="Q529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R529" s="2"/>
+      <c r="S529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG529" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="AH529" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI529" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ529" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK529" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B530" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C530" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D530" s="2"/>
+      <c r="E530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F530" s="2"/>
+      <c r="G530" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H530" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L530" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M530" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="N530" t="s" s="2">
+        <v>1236</v>
+      </c>
+      <c r="O530" s="2"/>
+      <c r="P530" s="2"/>
+      <c r="Q530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R530" s="2"/>
+      <c r="S530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG530" t="s" s="2">
+        <v>1234</v>
+      </c>
+      <c r="AH530" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI530" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ530" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK530" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="2">
+        <v>1476</v>
+      </c>
+      <c r="B531" t="s" s="2">
         <v>1237</v>
       </c>
-      <c r="AH480" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI480" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK480" t="s" s="2">
+      <c r="C531" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="D531" s="2"/>
+      <c r="E531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F531" s="2"/>
+      <c r="G531" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H531" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L531" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M531" t="s" s="2">
+        <v>1238</v>
+      </c>
+      <c r="N531" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="O531" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="P531" s="2"/>
+      <c r="Q531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R531" s="2"/>
+      <c r="S531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG531" t="s" s="2">
+        <v>1237</v>
+      </c>
+      <c r="AH531" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI531" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK531" t="s" s="2">
         <v>95</v>
       </c>
     </row>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:44:02+00:00</t>
+    <t>2023-02-13T07:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
